--- a/src/test/java/day12_WebTables_exelOtomasyon/ulkeler.xlsx
+++ b/src/test/java/day12_WebTables_exelOtomasyon/ulkeler.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE3C725-E780-4809-BE3F-A034C6B07B78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9139D275-9EC8-4005-A225-5EF4CDB07FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="589">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1740,12 +1740,61 @@
   </si>
   <si>
     <t>Zimbabve</t>
+  </si>
+  <si>
+    <t>ghfj</t>
+  </si>
+  <si>
+    <t>hmjghj</t>
+  </si>
+  <si>
+    <t>öljkl</t>
+  </si>
+  <si>
+    <t>fzdhfh</t>
+  </si>
+  <si>
+    <t>zdfhzdfh</t>
+  </si>
+  <si>
+    <t>ukyu</t>
+  </si>
+  <si>
+    <t>asff</t>
+  </si>
+  <si>
+    <t>Wef</t>
+  </si>
+  <si>
+    <t>fw</t>
+  </si>
+  <si>
+    <t>few</t>
+  </si>
+  <si>
+    <t>ewfg</t>
+  </si>
+  <si>
+    <t>gfwEG</t>
+  </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>1500000</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>54000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2166,18 +2215,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2190,8 +2239,11 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" t="s" s="0">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2204,8 +2256,11 @@
       <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" t="s" s="0">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -2219,7 +2274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2233,7 +2288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -2247,7 +2302,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -2261,7 +2316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2275,7 +2330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -2289,7 +2344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -2303,7 +2358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2316,8 +2371,11 @@
       <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" t="s" s="0">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -2331,7 +2389,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
@@ -2345,7 +2403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
@@ -2359,7 +2417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2373,7 +2431,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
@@ -2386,8 +2444,11 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" t="s" s="0">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -2401,7 +2462,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
@@ -2415,7 +2476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
@@ -2429,7 +2490,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
@@ -2443,7 +2504,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
@@ -2457,7 +2518,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>62</v>
       </c>
@@ -2471,7 +2532,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>65</v>
       </c>
@@ -2485,7 +2546,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>68</v>
       </c>
@@ -2499,7 +2560,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>72</v>
       </c>
@@ -2513,7 +2574,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>75</v>
       </c>
@@ -2527,7 +2588,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>78</v>
       </c>
@@ -2541,7 +2602,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>80</v>
       </c>
@@ -2555,7 +2616,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
@@ -2569,7 +2630,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>86</v>
       </c>
@@ -2583,7 +2644,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>88</v>
       </c>
@@ -2597,7 +2658,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>91</v>
       </c>
@@ -2611,7 +2672,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>94</v>
       </c>
@@ -2625,7 +2686,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>97</v>
       </c>
@@ -2639,7 +2700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>101</v>
       </c>
@@ -2653,7 +2714,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>104</v>
       </c>
@@ -2667,7 +2728,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>108</v>
       </c>
@@ -2681,7 +2742,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>111</v>
       </c>
@@ -2695,7 +2756,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>115</v>
       </c>
@@ -2709,7 +2770,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>118</v>
       </c>
@@ -2723,7 +2784,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>121</v>
       </c>
@@ -2737,7 +2798,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>124</v>
       </c>
@@ -2751,7 +2812,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>127</v>
       </c>
@@ -2765,7 +2826,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>130</v>
       </c>
@@ -2779,7 +2840,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>133</v>
       </c>
@@ -2793,7 +2854,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>136</v>
       </c>
@@ -2807,7 +2868,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>140</v>
       </c>
@@ -2821,7 +2882,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>144</v>
       </c>
@@ -2835,7 +2896,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>148</v>
       </c>
@@ -2849,7 +2910,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>150</v>
       </c>
@@ -2863,7 +2924,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>153</v>
       </c>
@@ -2877,7 +2938,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>156</v>
       </c>
@@ -2891,7 +2952,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>159</v>
       </c>
@@ -2905,7 +2966,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>163</v>
       </c>
@@ -2919,7 +2980,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>167</v>
       </c>
@@ -2933,7 +2994,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>169</v>
       </c>
@@ -2947,7 +3008,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>172</v>
       </c>
@@ -2961,7 +3022,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>175</v>
       </c>
@@ -2975,7 +3036,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>178</v>
       </c>
@@ -2989,7 +3050,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>181</v>
       </c>
@@ -3003,7 +3064,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>183</v>
       </c>
@@ -3017,7 +3078,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>186</v>
       </c>
@@ -3031,7 +3092,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>189</v>
       </c>
@@ -3045,7 +3106,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>191</v>
       </c>
@@ -3059,7 +3120,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>194</v>
       </c>
@@ -3073,7 +3134,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>198</v>
       </c>
@@ -3087,7 +3148,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>201</v>
       </c>
@@ -3101,7 +3162,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>204</v>
       </c>
@@ -3115,7 +3176,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>208</v>
       </c>
@@ -3129,7 +3190,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>210</v>
       </c>
@@ -3143,7 +3204,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>212</v>
       </c>
@@ -3157,7 +3218,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>215</v>
       </c>
@@ -3171,7 +3232,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>218</v>
       </c>
@@ -3185,7 +3246,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>220</v>
       </c>
@@ -3199,7 +3260,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>222</v>
       </c>
@@ -3213,7 +3274,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>224</v>
       </c>
@@ -3227,7 +3288,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>228</v>
       </c>
@@ -3241,7 +3302,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>231</v>
       </c>
@@ -3255,7 +3316,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>234</v>
       </c>
@@ -3269,7 +3330,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>238</v>
       </c>
@@ -3283,7 +3344,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>242</v>
       </c>
@@ -3297,7 +3358,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>246</v>
       </c>
@@ -3311,7 +3372,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>249</v>
       </c>
@@ -3325,7 +3386,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>252</v>
       </c>
@@ -3339,7 +3400,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>256</v>
       </c>
@@ -3353,7 +3414,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>259</v>
       </c>
@@ -3367,7 +3428,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>262</v>
       </c>
@@ -3381,7 +3442,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>265</v>
       </c>
@@ -3395,7 +3456,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>268</v>
       </c>
@@ -3409,7 +3470,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>270</v>
       </c>
@@ -3423,7 +3484,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>272</v>
       </c>
@@ -3437,7 +3498,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>275</v>
       </c>
@@ -3451,7 +3512,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>279</v>
       </c>
@@ -3465,7 +3526,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>282</v>
       </c>
@@ -3479,7 +3540,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>286</v>
       </c>
@@ -3493,7 +3554,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>288</v>
       </c>
@@ -3507,7 +3568,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>291</v>
       </c>
@@ -3521,7 +3582,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>295</v>
       </c>
@@ -3535,7 +3596,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>298</v>
       </c>
@@ -3549,7 +3610,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>300</v>
       </c>
@@ -3563,7 +3624,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>303</v>
       </c>
@@ -3577,7 +3638,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>305</v>
       </c>
@@ -3591,7 +3652,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>309</v>
       </c>
@@ -3605,7 +3666,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>312</v>
       </c>
@@ -3619,7 +3680,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>315</v>
       </c>
@@ -3633,7 +3694,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>318</v>
       </c>
@@ -3647,7 +3708,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>321</v>
       </c>
@@ -3661,7 +3722,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>323</v>
       </c>
@@ -3675,7 +3736,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>325</v>
       </c>
@@ -3689,7 +3750,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>328</v>
       </c>
@@ -3703,7 +3764,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>332</v>
       </c>
@@ -3717,7 +3778,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>335</v>
       </c>
@@ -3731,7 +3792,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>338</v>
       </c>
@@ -3745,7 +3806,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>341</v>
       </c>
@@ -3759,7 +3820,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>344</v>
       </c>
@@ -3773,7 +3834,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>346</v>
       </c>
@@ -3787,7 +3848,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>350</v>
       </c>
@@ -3801,7 +3862,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>353</v>
       </c>
@@ -3815,7 +3876,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>356</v>
       </c>
@@ -3829,7 +3890,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>359</v>
       </c>
@@ -3843,7 +3904,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>362</v>
       </c>
@@ -3857,7 +3918,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>365</v>
       </c>
@@ -3871,7 +3932,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>368</v>
       </c>
@@ -3885,7 +3946,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>371</v>
       </c>
@@ -3899,7 +3960,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>374</v>
       </c>
@@ -3913,7 +3974,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>377</v>
       </c>
@@ -3927,7 +3988,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>380</v>
       </c>
@@ -3941,7 +4002,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>383</v>
       </c>
@@ -3955,7 +4016,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>386</v>
       </c>
@@ -3969,7 +4030,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>389</v>
       </c>
@@ -3983,7 +4044,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>393</v>
       </c>
@@ -3997,7 +4058,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>396</v>
       </c>
@@ -4011,7 +4072,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>398</v>
       </c>
@@ -4025,7 +4086,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>400</v>
       </c>
@@ -4039,7 +4100,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>403</v>
       </c>
@@ -4053,7 +4114,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
         <v>405</v>
       </c>
@@ -4067,7 +4128,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>407</v>
       </c>
@@ -4081,7 +4142,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>410</v>
       </c>
@@ -4095,7 +4156,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>414</v>
       </c>
@@ -4109,7 +4170,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>418</v>
       </c>
@@ -4123,7 +4184,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>421</v>
       </c>
@@ -4137,7 +4198,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>425</v>
       </c>
@@ -4151,7 +4212,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>429</v>
       </c>
@@ -4165,7 +4226,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>432</v>
       </c>
@@ -4179,7 +4240,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>435</v>
       </c>
@@ -4193,7 +4254,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>437</v>
       </c>
@@ -4207,7 +4268,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>440</v>
       </c>
@@ -4221,7 +4282,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>442</v>
       </c>
@@ -4235,7 +4296,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>443</v>
       </c>
@@ -4249,7 +4310,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>446</v>
       </c>
@@ -4263,7 +4324,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>450</v>
       </c>
@@ -4277,7 +4338,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>452</v>
       </c>
@@ -4291,7 +4352,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>456</v>
       </c>
@@ -4305,7 +4366,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>459</v>
       </c>
@@ -4319,7 +4380,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>461</v>
       </c>
@@ -4333,7 +4394,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>463</v>
       </c>
@@ -4347,7 +4408,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>466</v>
       </c>
@@ -4361,7 +4422,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>469</v>
       </c>
@@ -4375,7 +4436,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>472</v>
       </c>
@@ -4389,7 +4450,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>476</v>
       </c>
@@ -4403,7 +4464,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>479</v>
       </c>
@@ -4417,7 +4478,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>482</v>
       </c>
@@ -4431,7 +4492,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>484</v>
       </c>
@@ -4445,7 +4506,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>487</v>
       </c>
@@ -4459,7 +4520,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>490</v>
       </c>
@@ -4473,7 +4534,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>492</v>
       </c>
@@ -4487,7 +4548,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>496</v>
       </c>
@@ -4501,7 +4562,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>499</v>
       </c>
@@ -4515,7 +4576,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>503</v>
       </c>
@@ -4529,7 +4590,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>507</v>
       </c>
@@ -4543,7 +4604,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>511</v>
       </c>
@@ -4557,7 +4618,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>514</v>
       </c>
@@ -4571,7 +4632,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>516</v>
       </c>
@@ -4585,7 +4646,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>519</v>
       </c>
@@ -4599,7 +4660,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>522</v>
       </c>
@@ -4613,7 +4674,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>525</v>
       </c>
@@ -4627,7 +4688,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>528</v>
       </c>
@@ -4641,7 +4702,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>532</v>
       </c>
@@ -4655,7 +4716,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>534</v>
       </c>
@@ -4669,7 +4730,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>536</v>
       </c>
@@ -4683,7 +4744,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>539</v>
       </c>
@@ -4697,7 +4758,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>543</v>
       </c>
@@ -4711,7 +4772,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>547</v>
       </c>
@@ -4725,7 +4786,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>550</v>
       </c>
@@ -4739,7 +4800,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>552</v>
       </c>
@@ -4753,7 +4814,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>556</v>
       </c>
@@ -4767,7 +4828,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>558</v>
       </c>
@@ -4781,7 +4842,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>560</v>
       </c>
@@ -4795,7 +4856,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>562</v>
       </c>
@@ -4809,7 +4870,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>564</v>
       </c>
@@ -4823,7 +4884,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>567</v>
       </c>
@@ -4837,7 +4898,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>570</v>
       </c>
@@ -4859,14 +4920,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="0">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="0">
+        <v>581</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s" s="0">
+        <v>580</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s" s="0">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="0">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0">
+        <v>7</v>
+      </c>
+      <c r="D7" s="0">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0">
+        <v>7</v>
+      </c>
+      <c r="F7" s="0">
+        <v>7</v>
+      </c>
+      <c r="G7" s="0">
+        <v>7</v>
+      </c>
+      <c r="H7" s="0">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>